--- a/Doc/Tabelas.xlsx
+++ b/Doc/Tabelas.xlsx
@@ -761,6 +761,21 @@
     <xf numFmtId="8" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,21 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="40" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="K4" s="35"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
-      <c r="K5" s="35"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="K6" s="35"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1287,16 +1287,16 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="18"/>
-      <c r="K13" s="36"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
-      <c r="K14" s="36"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="18"/>
-      <c r="K15" s="36"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="18"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="18"/>
-      <c r="K18" s="36"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="18"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="18"/>
-      <c r="K20" s="36"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="18"/>
-      <c r="K21" s="36"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="18"/>
-      <c r="K22" s="36"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="18"/>
-      <c r="K23" s="36"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="18"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="18"/>
-      <c r="K25" s="36"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
@@ -1585,7 +1585,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="18"/>
-      <c r="K26" s="36"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
@@ -1601,7 +1601,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="18"/>
-      <c r="K27" s="36"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
@@ -1617,7 +1617,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="18"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="41"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="18"/>
-      <c r="K30" s="36"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
-      <c r="K31" s="36"/>
+      <c r="K31" s="41"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="18"/>
-      <c r="K32" s="36"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="18"/>
-      <c r="K33" s="36"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="18"/>
-      <c r="K34" s="36"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="18"/>
-      <c r="K35" s="36"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
@@ -1758,16 +1758,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="21"/>
-      <c r="K38" s="37" t="s">
+      <c r="K38" s="42" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="21"/>
-      <c r="K39" s="37"/>
+      <c r="K39" s="42"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="21"/>
-      <c r="K40" s="37"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="21"/>
-      <c r="K41" s="37"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
@@ -1853,20 +1853,20 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
-      <c r="K42" s="37"/>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="K44" s="42" t="s">
+      <c r="K44" s="37" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="K45" s="42"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="K46" s="42"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="K47" s="42"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="K48" s="42"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="27"/>
-      <c r="K49" s="42"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="27"/>
-      <c r="K50" s="42"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="27"/>
-      <c r="K51" s="42"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="27"/>
-      <c r="K52" s="42"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H53" s="26"/>
       <c r="I53" s="27"/>
-      <c r="K53" s="42"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="27"/>
-      <c r="K54" s="42"/>
+      <c r="K54" s="37"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H55" s="26"/>
       <c r="I55" s="27"/>
-      <c r="K55" s="42"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="27"/>
-      <c r="K56" s="42"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H57" s="26"/>
       <c r="I57" s="27"/>
-      <c r="K57" s="42"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
@@ -2141,20 +2141,20 @@
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
       <c r="I58" s="27"/>
-      <c r="K58" s="42"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="K60" s="43" t="s">
+      <c r="K60" s="38" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="30"/>
-      <c r="K61" s="43"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="30"/>
-      <c r="K62" s="43"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="30"/>
-      <c r="K63" s="43"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="30"/>
-      <c r="K64" s="43"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="30"/>
-      <c r="K65" s="43"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="30"/>
-      <c r="K66" s="43"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="H67" s="29"/>
       <c r="I67" s="30"/>
-      <c r="K67" s="43"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="30"/>
-      <c r="K68" s="43"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
@@ -2331,7 +2331,7 @@
       <c r="H69" s="31"/>
       <c r="I69" s="33"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="43"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
-      <c r="K70" s="43"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C71" s="29"/>
@@ -2358,19 +2358,19 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
-      <c r="K71" s="43"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
     </row>
     <row r="73" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
-      <c r="K73" s="39" t="s">
+      <c r="K73" s="34" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2406,10 +2406,15 @@
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
-      <c r="K74" s="39"/>
+      <c r="K74" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K11:K35"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="B10:I10"/>
     <mergeCell ref="K73:K74"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="B37:I37"/>
@@ -2417,11 +2422,6 @@
     <mergeCell ref="B72:I72"/>
     <mergeCell ref="K44:K58"/>
     <mergeCell ref="K60:K71"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="K11:K35"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
